--- a/input_spreadsheets/Tanzania/regions/InputForCode_Arusha_v2.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Arusha_v2.xlsx
@@ -5,46 +5,65 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Optima Nutrition/Applications/Tanzania/RegionalBooks/NewBooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282F52AF-FD0C-7047-BFD9-34189639AC61}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92964936-7048-E649-B211-9ED596F55BB5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
-    <sheet name="Demographic projections" sheetId="2" r:id="rId2"/>
-    <sheet name="Annual prevalence" sheetId="46" r:id="rId3"/>
-    <sheet name="Causes of death" sheetId="4" r:id="rId4"/>
-    <sheet name="Distributions" sheetId="5" r:id="rId5"/>
-    <sheet name="Incidence of conditions" sheetId="7" r:id="rId6"/>
-    <sheet name="Prevalence of anaemia" sheetId="29" r:id="rId7"/>
-    <sheet name="Distribution births" sheetId="36" r:id="rId8"/>
-    <sheet name="Birth outcomes &amp; risks" sheetId="6" r:id="rId9"/>
-    <sheet name="Relative risks" sheetId="26" r:id="rId10"/>
-    <sheet name="Odds ratios" sheetId="27" r:id="rId11"/>
-    <sheet name="IYCF package odds ratios" sheetId="32" r:id="rId12"/>
-    <sheet name="IYCF packages" sheetId="33" r:id="rId13"/>
-    <sheet name="IYCF cost &amp; coverage" sheetId="35" r:id="rId14"/>
-    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId15"/>
-    <sheet name="Programs birth outcomes" sheetId="22" r:id="rId16"/>
-    <sheet name="Programs anaemia" sheetId="30" r:id="rId17"/>
-    <sheet name="Programs wasting" sheetId="31" r:id="rId18"/>
-    <sheet name="Programs for children" sheetId="28" r:id="rId19"/>
-    <sheet name="Programs family planning" sheetId="34" r:id="rId20"/>
-    <sheet name="Programs for PW" sheetId="38" r:id="rId21"/>
-    <sheet name="Programs birth age" sheetId="37" r:id="rId22"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId23"/>
-    <sheet name="Programs impacted population" sheetId="39" r:id="rId24"/>
-    <sheet name="Program dependencies" sheetId="40" r:id="rId25"/>
-    <sheet name="Program risk areas" sheetId="41" r:id="rId26"/>
-    <sheet name="Population risk areas" sheetId="42" r:id="rId27"/>
-    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId28"/>
-    <sheet name="Programs annual spending" sheetId="43" r:id="rId29"/>
-    <sheet name="Reference programs" sheetId="44" r:id="rId30"/>
-    <sheet name="Programs to include" sheetId="45" r:id="rId31"/>
+    <sheet name="Expenditure &amp; budget" sheetId="50" r:id="rId1"/>
+    <sheet name="Baseline year demographics" sheetId="1" r:id="rId2"/>
+    <sheet name="Demographic projections" sheetId="2" r:id="rId3"/>
+    <sheet name="Annual prevalence" sheetId="46" r:id="rId4"/>
+    <sheet name="Causes of death" sheetId="4" r:id="rId5"/>
+    <sheet name="Distributions" sheetId="5" r:id="rId6"/>
+    <sheet name="Incidence of conditions" sheetId="7" r:id="rId7"/>
+    <sheet name="Prevalence of anaemia" sheetId="29" r:id="rId8"/>
+    <sheet name="Distribution births" sheetId="36" r:id="rId9"/>
+    <sheet name="Birth outcomes &amp; risks" sheetId="6" r:id="rId10"/>
+    <sheet name="Relative risks" sheetId="26" r:id="rId11"/>
+    <sheet name="Odds ratios" sheetId="27" r:id="rId12"/>
+    <sheet name="IYCF package odds ratios" sheetId="32" r:id="rId13"/>
+    <sheet name="IYCF packages" sheetId="33" r:id="rId14"/>
+    <sheet name="IYCF cost &amp; coverage" sheetId="35" r:id="rId15"/>
+    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId16"/>
+    <sheet name="Programs birth outcomes" sheetId="22" r:id="rId17"/>
+    <sheet name="Programs anaemia" sheetId="30" r:id="rId18"/>
+    <sheet name="Programs wasting" sheetId="31" r:id="rId19"/>
+    <sheet name="Programs for children" sheetId="28" r:id="rId20"/>
+    <sheet name="Programs family planning" sheetId="34" r:id="rId21"/>
+    <sheet name="Programs for PW" sheetId="38" r:id="rId22"/>
+    <sheet name="Programs birth age" sheetId="37" r:id="rId23"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId24"/>
+    <sheet name="Programs impacted population" sheetId="39" r:id="rId25"/>
+    <sheet name="Program dependencies" sheetId="40" r:id="rId26"/>
+    <sheet name="Program risk areas" sheetId="41" r:id="rId27"/>
+    <sheet name="Population risk areas" sheetId="42" r:id="rId28"/>
+    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId29"/>
+    <sheet name="Programs annual spending" sheetId="43" r:id="rId30"/>
+    <sheet name="Reference programs" sheetId="44" r:id="rId31"/>
+    <sheet name="Programs to include" sheetId="45" r:id="rId32"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId33"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="FPCov">'[1]Programs cost and coverage'!$B$6</definedName>
+    <definedName name="FPunmetNeed">'[1]Baseline year demographics'!$C$11</definedName>
+    <definedName name="FracEatingWheat">'[1]Baseline year demographics'!$C$27</definedName>
+    <definedName name="FracEatMaize">'[1]Baseline year demographics'!$C$28</definedName>
+    <definedName name="FracEatRice">'[1]Baseline year demographics'!$C$26</definedName>
+    <definedName name="FracPoor">'[1]Baseline year demographics'!$C$7</definedName>
+    <definedName name="FracRiskMalaria">'[1]Baseline year demographics'!$C$8</definedName>
+    <definedName name="FracSchoolAttendance">'[1]Baseline year demographics'!$C$6</definedName>
+    <definedName name="NumNonPW">'[1]Baseline year demographics'!$C$38:$C$41</definedName>
+    <definedName name="NumPW">'[1]Baseline year demographics'!$C$5</definedName>
+    <definedName name="PWDist">'[1]Baseline year demographics'!$C$50:$C$53</definedName>
+    <definedName name="PWPop">'[1]Baseline year demographics'!$C$44:$C$47</definedName>
+    <definedName name="WRAPop">'[1]Baseline year demographics'!$C$32:$C$35</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -61,11 +80,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
-    <author xml:space="preserve"> Janka Petravic</author>
-    <author>Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{562DF947-5575-EA45-9F92-58BDA705B666}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{CC87181F-35C9-A548-9806-840687FF3B7B}">
       <text>
         <r>
           <rPr>
@@ -94,44 +111,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>not sure this is needed anymore</t>
+          <t>Ensures that the 'current spending' value is equal to this.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is calculated, this is why it is grey -f formula should be in the input sheet</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{97CC87D8-0AE9-E440-BA77-8C8E2740FFDE}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{084007A6-AB57-FB4C-902D-309453F32E3F}">
       <text>
         <r>
           <rPr>
@@ -160,277 +144,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>fraction of women with secondary education</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Fraction food insecure in the target population (here the lowest 2 wealth quintiles)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{276656B3-333D-7647-BDA2-F33EDF6FFB23}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>per 1,000 live births</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Fraction of pregnancies ending in spontaneous abortion</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Number of stillbirths per 1000 TOTAL births</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B22" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Per 1000 live births</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Per 1000 live births</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B24" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Per 1000 live births</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C26" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Guesses</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A52" authorId="1" shapeId="0" xr:uid="{BE480AF7-77DA-3842-A5F2-33A537A24B38}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Should add up to 1</t>
+          <t>Total funds that are available for program allocation</t>
         </r>
       </text>
     </comment>
@@ -442,9 +156,11 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
+    <author>Janka Petravic</author>
+    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{CA6A71A5-6A65-104C-8F12-BA6C25D7E297}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{1C138B6D-B856-C949-B172-98332AB617F6}">
       <text>
         <r>
           <rPr>
@@ -464,7 +180,259 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-We currently do not have 'appropriate complementary feeding' data to use, so this does nothing.</t>
+May not need these beyond calculation below</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{AC4CEB72-E258-A94B-92E9-59A5C4626CFB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST: 1.11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{312A7918-F164-594E-95AE-CF10FE2D8518}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This calculation 'dilutes' OR so that we cover 'everyone' with IYCF, not just frac poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{873CCBA5-1C0C-1A42-A5AC-1A808DE566FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick had these in the params documentation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{658A9CF5-8E29-F147-B137-4C82F17E4B94}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{66D5CC1B-DD48-4D4B-A663-19AF97C68909}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{C452A252-8E27-584B-A0EC-1624478A71AB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="2" shapeId="0" xr:uid="{63B06206-4494-984A-BDB4-F2A1D0EA07FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This should be changed later I guess</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="2" shapeId="0" xr:uid="{EBBD28B1-CCB8-454C-A8B7-157E6A1834F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This should be changed later I guess</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{03DC3FAC-49A4-3D4D-80EB-A9D716FCE88C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed same as stunting</t>
         </r>
       </text>
     </comment>
@@ -478,7 +446,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{CA6A71A5-6A65-104C-8F12-BA6C25D7E297}">
       <text>
         <r>
           <rPr>
@@ -498,26 +466,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-If user wants this, it must be checked for </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>all populations</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> b/c they are all targetted at once.</t>
+We currently do not have 'appropriate complementary feeding' data to use, so this does nothing.</t>
         </r>
       </text>
     </comment>
@@ -529,16 +478,15 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
-    <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{B76F66C8-7B83-9340-A29B-8CE6771C57D4}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -547,87 +495,31 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.5*unit cost of BFP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{FFF63A9C-244D-5840-BA18-C8E2F95B0E3D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Cost of BF + CFE for Tanzania</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{62D16011-FCA3-D145-8BA0-4E7089317928}">
-      <text>
+If user wants this, it must be checked for </t>
+        </r>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>all populations</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Totally fictional</t>
+          <t xml:space="preserve"> b/c they are all targetted at once.</t>
         </r>
       </text>
     </comment>
@@ -638,124 +530,28 @@
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
-    <author>Microsoft Office User</author>
+    <author>Sam</author>
+    <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{AD9E3C4A-1666-3F41-9F4C-753CE890FD33}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{B76F66C8-7B83-9340-A29B-8CE6771C57D4}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Poor pregnant women - all target population</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="1" shapeId="0" xr:uid="{E81F828A-D68A-134B-A1AA-425C9CB71622}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-% at risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="1" shapeId="0" xr:uid="{8017D28A-B15A-C646-B610-3F617B6C4E3F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-% at risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="1" shapeId="0" xr:uid="{7600BF59-E123-234F-A8E5-42D668BFF506}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-% at risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D15" authorId="1" shapeId="0" xr:uid="{9B1DFFA1-D8CC-B342-A537-43EE7D55FC0A}">
-      <text>
-        <r>
-          <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
+          </rPr>
+          <t>Sam:</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -763,11 +559,77 @@
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>% at risk from malaria</t>
+          </rPr>
+          <t>1.5*unit cost of BFP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{FFF63A9C-244D-5840-BA18-C8E2F95B0E3D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cost of BF + CFE for Tanzania</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{62D16011-FCA3-D145-8BA0-4E7089317928}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Totally fictional</t>
         </r>
       </text>
     </comment>
@@ -780,10 +642,9 @@
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
     <author>Microsoft Office User</author>
-    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{2A01DF3B-2A31-D34F-9E3D-9CDFA3880024}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{AD9E3C4A-1666-3F41-9F4C-753CE890FD33}">
       <text>
         <r>
           <rPr>
@@ -803,57 +664,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+Poor pregnant women - all target population</t>
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{25987951-5DF5-3642-838E-7CE3E52C9F21}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Microsoft Office User: 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This RR is from the book.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{D4714E38-D200-214E-BFB8-10F6C09D4283}">
+    <comment ref="C13" authorId="1" shapeId="0" xr:uid="{E81F828A-D68A-134B-A1AA-425C9CB71622}">
       <text>
         <r>
           <rPr>
@@ -863,9 +678,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -875,11 +688,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{C1323E78-CA98-C549-93D6-CC38AB647949}">
+    <comment ref="D13" authorId="1" shapeId="0" xr:uid="{8017D28A-B15A-C646-B610-3F617B6C4E3F}">
       <text>
         <r>
           <rPr>
@@ -889,9 +702,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -901,11 +712,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{3679FD5F-0BFF-9243-AA1E-13D8B7717C35}">
+    <comment ref="C15" authorId="1" shapeId="0" xr:uid="{7600BF59-E123-234F-A8E5-42D668BFF506}">
       <text>
         <r>
           <rPr>
@@ -915,9 +726,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -927,488 +736,40 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{741711BA-189E-8147-86ED-6E3FA7946E00}">
+    <comment ref="D15" authorId="1" shapeId="0" xr:uid="{9B1DFFA1-D8CC-B342-A537-43EE7D55FC0A}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="1" shapeId="0" xr:uid="{D74EA305-7941-CE4D-BC8E-A1D54FC6696F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{ACE633B4-63BA-2441-81E1-55AF9A05E5DF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+        <r>
+          <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{56483EDA-75FD-FF4E-96DD-56B91152AED7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{759FF832-CED6-AF4B-866F-E34F7C7D7F7F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L4" authorId="1" shapeId="0" xr:uid="{2FC26AAA-82A7-2041-9600-C5D143F60516}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M4" authorId="1" shapeId="0" xr:uid="{B0C90187-C02D-BB4F-9A28-01B881B516BE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N4" authorId="1" shapeId="0" xr:uid="{42EA2CCB-B954-5946-8104-F7269AFF6CBF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O4" authorId="1" shapeId="0" xr:uid="{04B55ADA-46E5-6543-AD73-DD286B64409B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L5" authorId="1" shapeId="0" xr:uid="{0FB9B862-FEEF-CB40-A68A-D12428ECA3B3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M5" authorId="1" shapeId="0" xr:uid="{47C1E55C-3048-F745-BA8D-B8C4D52AEB7B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N5" authorId="1" shapeId="0" xr:uid="{D9BDE3A7-351C-FF44-8284-454C4E439F29}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O5" authorId="1" shapeId="0" xr:uid="{A41EBFED-9547-6143-A571-44EDA3B00704}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="1" shapeId="0" xr:uid="{B900C0CE-1B88-5647-A509-DA1F64897E2B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Source: WHO guidelines on sprinkles</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="1" shapeId="0" xr:uid="{0399462C-9599-434E-86EE-04936272705F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Effect on iron-deficiency anemia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E24" authorId="1" shapeId="0" xr:uid="{FA639EFE-32AF-0F43-BD6E-109F2F6D4EB4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Effect on iron-deficiency anemia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B25" authorId="1" shapeId="0" xr:uid="{1702A825-D396-114E-B0C3-0E48DF41164F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Only in malaria risk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E27" authorId="2" shapeId="0" xr:uid="{D67F24AD-8298-8740-BD41-5488939EC3C4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-made this number up
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{AD1AC234-57FA-B64E-B470-54E144B181C2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Same effect as iron fortification</t>
+            <scheme val="minor"/>
+          </rPr>
+          <t>% at risk from malaria</t>
         </r>
       </text>
     </comment>
@@ -1419,44 +780,82 @@
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Sam</author>
+    <author xml:space="preserve"> Janka Petravic</author>
     <author>Microsoft Office User</author>
+    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{B70EAA73-7BEF-C743-AD05-479A2E76FF37}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{2A01DF3B-2A31-D34F-9E3D-9CDFA3880024}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{25987951-5DF5-3642-838E-7CE3E52C9F21}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Microsoft Office User: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This RR is from the book.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Used RR from params and AF above</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{2576BF3B-E262-9E45-8EED-349BD04A0F4D}">
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{D4714E38-D200-214E-BFB8-10F6C09D4283}">
       <text>
         <r>
           <rPr>
@@ -1466,7 +865,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1476,44 +877,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Probably can delete</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{06558F74-6530-0646-95DC-EF62BA1D6C89}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick had RR in params doc, I fixed AF and solved for Eff</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F21" authorId="1" shapeId="0" xr:uid="{85036A21-28A7-E544-8A62-E99F66823F45}">
+    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{C1323E78-CA98-C549-93D6-CC38AB647949}">
       <text>
         <r>
           <rPr>
@@ -1523,7 +891,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1533,11 +903,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-WHO statement</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{27AB8FF4-B656-924A-BD4E-5CAE86D86851}">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{3679FD5F-0BFF-9243-AA1E-13D8B7717C35}">
       <text>
         <r>
           <rPr>
@@ -1547,7 +917,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1557,11 +929,35 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{53C141CB-EDAA-AB41-8189-4C07CCA2BA9B}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{741711BA-189E-8147-86ED-6E3FA7946E00}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1" shapeId="0" xr:uid="{D74EA305-7941-CE4D-BC8E-A1D54FC6696F}">
       <text>
         <r>
           <rPr>
@@ -1571,7 +967,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1581,73 +979,438 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{426D77C8-9DA3-364D-BDF3-94B4A93D5BBE}">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{ACE633B4-63BA-2441-81E1-55AF9A05E5DF}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>frac zinc deficient</t>
-        </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="0" shapeId="0" xr:uid="{A0A363FF-D9FF-3440-9554-316F71A66CA3}">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{56483EDA-75FD-FF4E-96DD-56B91152AED7}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
-        <r>
-          <rPr>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{759FF832-CED6-AF4B-866F-E34F7C7D7F7F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>frac zinc deficient</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="1" shapeId="0" xr:uid="{2FC26AAA-82A7-2041-9600-C5D143F60516}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="1" shapeId="0" xr:uid="{B0C90187-C02D-BB4F-9A28-01B881B516BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="1" shapeId="0" xr:uid="{42EA2CCB-B954-5946-8104-F7269AFF6CBF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="1" shapeId="0" xr:uid="{04B55ADA-46E5-6543-AD73-DD286B64409B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="1" shapeId="0" xr:uid="{0FB9B862-FEEF-CB40-A68A-D12428ECA3B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="1" shapeId="0" xr:uid="{47C1E55C-3048-F745-BA8D-B8C4D52AEB7B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="1" shapeId="0" xr:uid="{D9BDE3A7-351C-FF44-8284-454C4E439F29}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O5" authorId="1" shapeId="0" xr:uid="{A41EBFED-9547-6143-A571-44EDA3B00704}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="1" shapeId="0" xr:uid="{B900C0CE-1B88-5647-A509-DA1F64897E2B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Source: WHO guidelines on sprinkles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="1" shapeId="0" xr:uid="{0399462C-9599-434E-86EE-04936272705F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Effect on iron-deficiency anemia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="1" shapeId="0" xr:uid="{FA639EFE-32AF-0F43-BD6E-109F2F6D4EB4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Effect on iron-deficiency anemia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="1" shapeId="0" xr:uid="{1702A825-D396-114E-B0C3-0E48DF41164F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only in malaria risk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="2" shapeId="0" xr:uid="{D67F24AD-8298-8740-BD41-5488939EC3C4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+made this number up
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{AD1AC234-57FA-B64E-B470-54E144B181C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same effect as iron fortification</t>
         </r>
       </text>
     </comment>
@@ -1658,30 +1421,235 @@
 <file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Ruth</author>
+    <author>Sam</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1400-000001000000}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{B70EAA73-7BEF-C743-AD05-479A2E76FF37}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Used RR from params and AF above</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{2576BF3B-E262-9E45-8EED-349BD04A0F4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Ruth made these numbers up</t>
+Probably can delete</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{06558F74-6530-0646-95DC-EF62BA1D6C89}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick had RR in params doc, I fixed AF and solved for Eff</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="1" shapeId="0" xr:uid="{85036A21-28A7-E544-8A62-E99F66823F45}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WHO statement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{27AB8FF4-B656-924A-BD4E-5CAE86D86851}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{53C141CB-EDAA-AB41-8189-4C07CCA2BA9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{426D77C8-9DA3-364D-BDF3-94B4A93D5BBE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>frac zinc deficient</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D46" authorId="0" shapeId="0" xr:uid="{A0A363FF-D9FF-3440-9554-316F71A66CA3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>frac zinc deficient</t>
         </r>
       </text>
     </comment>
@@ -1692,11 +1660,10 @@
 <file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
     <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{EF1ADEA1-7EF8-B442-8085-BBD07AEE3540}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1706,7 +1673,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
+          <t>Ruth:</t>
         </r>
         <r>
           <rPr>
@@ -1716,33 +1683,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-assume target pop is WRA &lt;18 years, then this is just  birth age distribution for
- this age
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{6536E806-8AD9-4940-8462-921850DAFB2D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-made numbers up for effectiveness</t>
+Ruth made these numbers up</t>
         </r>
       </text>
     </comment>
@@ -1753,84 +1694,11 @@
 <file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Sam</author>
     <author xml:space="preserve"> Janka Petravic</author>
+    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{C9CA4179-B980-6B4F-9E68-F0047E47262C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Frac poor
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{F6063695-5CF4-3E49-AEDD-C17C7CBDF94F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{1E89E615-D5AD-B64F-8BE3-9BBFF66B3C75}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Frac food insecure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="1" shapeId="0" xr:uid="{5E6E025E-5491-464E-9CD2-7BA2F4617EC1}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{EF1ADEA1-7EF8-B442-8085-BBD07AEE3540}">
       <text>
         <r>
           <rPr>
@@ -1850,11 +1718,13 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+assume target pop is WRA &lt;18 years, then this is just  birth age distribution for
+ this age
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="1" shapeId="0" xr:uid="{A00E57C9-6E57-D74B-8370-ECC72BF96063}">
+    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{6536E806-8AD9-4940-8462-921850DAFB2D}">
       <text>
         <r>
           <rPr>
@@ -1864,7 +1734,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
+          <t>Ruth:</t>
         </r>
         <r>
           <rPr>
@@ -1874,65 +1744,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Also brestfeeding women up to 6 months?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A22" authorId="1" shapeId="0" xr:uid="{914596D1-5A22-D744-843C-9DD33C1E5583}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Coverage of these interventions is mutually exclusive</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B49" authorId="0" shapeId="0" xr:uid="{679258EA-508C-6645-8D84-0188AA85D015}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Exposed to malaria
-</t>
+made numbers up for effectiveness</t>
         </r>
       </text>
     </comment>
@@ -1944,11 +1756,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
-    <author>Microsoft Office User</author>
     <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E57D8ED8-067F-4F4F-88F0-DE83A4B8F94F}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{C9CA4179-B980-6B4F-9E68-F0047E47262C}">
       <text>
         <r>
           <rPr>
@@ -1968,11 +1779,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-When one intervention cannot exceed 1-cov of another</t>
+Frac poor
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B5118AEB-5256-9B4B-99C2-D34A304881F6}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{F6063695-5CF4-3E49-AEDD-C17C7CBDF94F}">
       <text>
         <r>
           <rPr>
@@ -1992,11 +1804,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-When one program cannot exceed cov of another</t>
+Fraction poor</t>
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{EFEEEEDE-2EE5-D447-9216-8B82EC92BA40}">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{1E89E615-D5AD-B64F-8BE3-9BBFF66B3C75}">
       <text>
         <r>
           <rPr>
@@ -2006,7 +1818,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Sam:</t>
         </r>
         <r>
           <rPr>
@@ -2016,11 +1828,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Same effect as iron fortification</t>
+Frac food insecure</t>
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="2" shapeId="0" xr:uid="{911E7EB1-3114-9146-94A3-800F60EF6E5B}">
+    <comment ref="B19" authorId="1" shapeId="0" xr:uid="{5E6E025E-5491-464E-9CD2-7BA2F4617EC1}">
       <text>
         <r>
           <rPr>
@@ -2040,11 +1852,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-There is no unit cost for this to impact the budget.</t>
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="2" shapeId="0" xr:uid="{C30BF8F0-3F96-0541-8497-88B816A1FEAA}">
+    <comment ref="B20" authorId="1" shapeId="0" xr:uid="{A00E57C9-6E57-D74B-8370-ECC72BF96063}">
       <text>
         <r>
           <rPr>
@@ -2064,11 +1876,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-There is no unit cost for this to impact the budget.</t>
+Also brestfeeding women up to 6 months?</t>
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="2" shapeId="0" xr:uid="{BE2E3F51-CE93-A348-A822-E9F4B9F1EE61}">
+    <comment ref="A22" authorId="1" shapeId="0" xr:uid="{914596D1-5A22-D744-843C-9DD33C1E5583}">
       <text>
         <r>
           <rPr>
@@ -2088,31 +1900,41 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Also brestfeeding women up to 6 months?</t>
+Coverage of these interventions is mutually exclusive</t>
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="2" shapeId="0" xr:uid="{F7571AD9-B6B9-6B46-B34B-C6EEEFA23187}">
+    <comment ref="B49" authorId="0" shapeId="0" xr:uid="{679258EA-508C-6645-8D84-0188AA85D015}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Exposed to malaria
+</t>
         </r>
       </text>
     </comment>
@@ -2123,10 +1945,210 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Sam</author>
     <author xml:space="preserve"> Janka Petravic</author>
+    <author>Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{562DF947-5575-EA45-9F92-58BDA705B666}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not sure this is needed anymore</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is calculated, this is why it is grey -f formula should be in the input sheet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{97CC87D8-0AE9-E440-BA77-8C8E2740FFDE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>fraction of women with secondary education</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fraction food insecure in the target population (here the lowest 2 wealth quintiles)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{276656B3-333D-7647-BDA2-F33EDF6FFB23}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>per 1,000 live births</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fraction of pregnancies ending in spontaneous abortion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2146,11 +2168,77 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-calculated</t>
+Number of stillbirths per 1000 TOTAL births</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B22" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Per 1000 live births</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Per 1000 live births</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -2170,11 +2258,44 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-calculated</t>
+Per 1000 live births</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C26" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Guesses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A52" authorId="1" shapeId="0" xr:uid="{BE480AF7-77DA-3842-A5F2-33A537A24B38}">
       <text>
         <r>
           <rPr>
@@ -2194,7 +2315,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-calculated</t>
+Should add up to 1</t>
         </r>
       </text>
     </comment>
@@ -2203,6 +2324,186 @@
 </file>
 
 <file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+    <author>Microsoft Office User</author>
+    <author xml:space="preserve"> Janka Petravic</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E57D8ED8-067F-4F4F-88F0-DE83A4B8F94F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+When one intervention cannot exceed 1-cov of another</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B5118AEB-5256-9B4B-99C2-D34A304881F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+When one program cannot exceed cov of another</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{EFEEEEDE-2EE5-D447-9216-8B82EC92BA40}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same effect as iron fortification</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="2" shapeId="0" xr:uid="{911E7EB1-3114-9146-94A3-800F60EF6E5B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+There is no unit cost for this to impact the budget.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="2" shapeId="0" xr:uid="{C30BF8F0-3F96-0541-8497-88B816A1FEAA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+There is no unit cost for this to impact the budget.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="2" shapeId="0" xr:uid="{BE2E3F51-CE93-A348-A822-E9F4B9F1EE61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Also brestfeeding women up to 6 months?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="2" shapeId="0" xr:uid="{F7571AD9-B6B9-6B46-B34B-C6EEEFA23187}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ruth</author>
@@ -2988,51 +3289,6 @@
             <family val="2"/>
           </rPr>
           <t>DHS</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sam</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{ACE17EE3-F7B0-744D-8412-FAD207C6A6FC}">
-      <text>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="12"/>
-            <color rgb="FF7F7F7F"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is the calibration year and uses baseline coverage.</t>
         </r>
       </text>
     </comment>
@@ -3046,6 +3302,51 @@
     <author>Sam</author>
   </authors>
   <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{ACE17EE3-F7B0-744D-8412-FAD207C6A6FC}">
+      <text>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="12"/>
+            <color rgb="FF7F7F7F"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is the calibration year and uses baseline coverage.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+  </authors>
+  <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7F0A9FA6-3A27-2F4B-A482-30A245ABF478}">
       <text>
         <r>
@@ -3077,30 +3378,78 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Sam</author>
+    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{FC704A90-2CC0-DE47-9D42-52BFA56071C8}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
+            <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-We don't model deaths through severe diarrhoea specifically, only deaths through diarrhoea</t>
+calculated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calculated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calculated</t>
         </r>
       </text>
     </comment>
@@ -3111,198 +3460,30 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
+    <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{FC704A90-2CC0-DE47-9D42-52BFA56071C8}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST 13.56</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 7.11</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 5.47</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 1.97</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 4.01</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 2.84</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 1.49</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 0.79</t>
+We don't model deaths through severe diarrhoea specifically, only deaths through diarrhoea</t>
         </r>
       </text>
     </comment>
@@ -3313,39 +3494,198 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Sam</author>
+    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>From Jakub's book, annual incidence of severe acute wasting is annual prevalence * 2.6  (p. 147). Assuming the same to be true for moderate wasting.</t>
+LiST 13.56</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 7.11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 5.47</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 1.97</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 4.01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 2.84</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 1.49</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 0.79</t>
         </r>
       </text>
     </comment>
@@ -3357,92 +3697,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
-    <author>Nick</author>
-    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{E7F5F13C-CB8F-DF4E-9854-796D818BD538}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Using prevalence of iron-deficient anaemia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{A9A46E0D-2CAB-5642-9A27-0129B61BEC1B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fictional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="1" shapeId="0" xr:uid="{A23BF5D4-4E67-594A-A707-FE4C44443B55}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{23671C02-9CA0-3941-B61B-184644854028}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3471,217 +3728,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Fictional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="2" shapeId="0" xr:uid="{2BD8CFC5-7575-9045-9E9E-CF1511B2BE83}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stevens: 42% of global childhood anemia is ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{2A4EA3E8-8FB9-2C43-8DC9-B6FC5024DA30}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST, includes mild</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L6" authorId="2" shapeId="0" xr:uid="{5BCFFC7E-8AF3-5648-B8AB-45A0FC82CD6D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST, includes mild</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{D7670A39-4F85-344A-B8A4-8988825D785E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{2416939F-9152-7342-ABF1-AC7FABC1EB1F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{D08198AA-CD10-634C-9C71-3D75605D9B41}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{75975C5D-85BC-4840-8ABC-B447503DFCF6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="1" shapeId="0" xr:uid="{4CDB5734-0E97-7F44-A95D-BEA2489B58B4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DHS</t>
+          <t>From Jakub's book, annual incidence of severe acute wasting is annual prevalence * 2.6  (p. 147). Assuming the same to be true for moderate wasting.</t>
         </r>
       </text>
     </comment>
@@ -3692,10 +3739,207 @@
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Sam</author>
     <author>Nick</author>
+    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{C5A883EB-ADA8-534D-8FD8-CE777FA5BF67}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{E7F5F13C-CB8F-DF4E-9854-796D818BD538}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Using prevalence of iron-deficient anaemia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{A9A46E0D-2CAB-5642-9A27-0129B61BEC1B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fictional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="1" shapeId="0" xr:uid="{A23BF5D4-4E67-594A-A707-FE4C44443B55}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{23671C02-9CA0-3941-B61B-184644854028}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fictional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="2" shapeId="0" xr:uid="{2BD8CFC5-7575-9045-9E9E-CF1511B2BE83}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stevens: 42% of global childhood anemia is ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{2A4EA3E8-8FB9-2C43-8DC9-B6FC5024DA30}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST, includes mild</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="2" shapeId="0" xr:uid="{5BCFFC7E-8AF3-5648-B8AB-45A0FC82CD6D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST, includes mild</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{D7670A39-4F85-344A-B8A4-8988825D785E}">
       <text>
         <r>
           <rPr>
@@ -3715,7 +3959,112 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST</t>
+DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{2416939F-9152-7342-ABF1-AC7FABC1EB1F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{D08198AA-CD10-634C-9C71-3D75605D9B41}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{75975C5D-85BC-4840-8ABC-B447503DFCF6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="1" shapeId="0" xr:uid="{4CDB5734-0E97-7F44-A95D-BEA2489B58B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DHS</t>
         </r>
       </text>
     </comment>
@@ -3726,54 +4075,30 @@
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
+    <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{621EACD2-CD4A-FF46-A422-0EA978925DC3}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{C5A883EB-ADA8-534D-8FD8-CE777FA5BF67}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Term AGA should be given by a formula in the spreadsheet. The result should be greyed to indicate that it is calculated.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{57B6DC77-1F6A-C64D-B0E3-1880A9AF0E7A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Kozuki 2012, for hematocrit &lt;90g/L</t>
+LiST</t>
         </r>
       </text>
     </comment>
@@ -3784,36 +4109,10 @@
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Sam</author>
-    <author>Janka Petravic</author>
     <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{1C138B6D-B856-C949-B172-98332AB617F6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-May not need these beyond calculation below</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{AC4CEB72-E258-A94B-92E9-59A5C4626CFB}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{621EACD2-CD4A-FF46-A422-0EA978925DC3}">
       <text>
         <r>
           <rPr>
@@ -3823,7 +4122,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Janka Petravic:</t>
+          <t xml:space="preserve"> Janka Petravic:</t>
         </r>
         <r>
           <rPr>
@@ -3833,158 +4132,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST: 1.11</t>
+Term AGA should be given by a formula in the spreadsheet. The result should be greyed to indicate that it is calculated.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{312A7918-F164-594E-95AE-CF10FE2D8518}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This calculation 'dilutes' OR so that we cover 'everyone' with IYCF, not just frac poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{873CCBA5-1C0C-1A42-A5AC-1A808DE566FF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick had these in the params documentation</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{658A9CF5-8E29-F147-B137-4C82F17E4B94}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{66D5CC1B-DD48-4D4B-A663-19AF97C68909}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{C452A252-8E27-584B-A0EC-1624478A71AB}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="2" shapeId="0" xr:uid="{63B06206-4494-984A-BDB4-F2A1D0EA07FE}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{57B6DC77-1F6A-C64D-B0E3-1880A9AF0E7A}">
       <text>
         <r>
           <rPr>
@@ -4004,64 +4156,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-This should be changed later I guess</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="2" shapeId="0" xr:uid="{EBBD28B1-CCB8-454C-A8B7-157E6A1834F1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This should be changed later I guess</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{03DC3FAC-49A4-3D4D-80EB-A9D716FCE88C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assumed same as stunting</t>
+Kozuki 2012, for hematocrit &lt;90g/L</t>
         </r>
       </text>
     </comment>
@@ -4070,7 +4165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="274">
   <si>
     <t>year</t>
   </si>
@@ -4884,6 +4979,15 @@
   <si>
     <t>maternal mortality</t>
   </si>
+  <si>
+    <t>Available budget</t>
+  </si>
+  <si>
+    <t>Current expenditure</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
 </sst>
 </file>
 
@@ -5347,7 +5451,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="739">
+  <cellStyleXfs count="740">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6087,8 +6191,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6332,8 +6437,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="739" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="739">
+  <cellStyles count="740">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -7072,6 +7181,7 @@
     <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="739" xr:uid="{900DE6F1-ADAB-AF49-9C61-4C89A06E5A00}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8167,6 +8277,210 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Baseline year demographics"/>
+      <sheetName val="Demographic projections"/>
+      <sheetName val="Annual prevalence"/>
+      <sheetName val="Causes of death"/>
+      <sheetName val="Incidence of conditions"/>
+      <sheetName val="Prevalence of anaemia"/>
+      <sheetName val="Distributions"/>
+      <sheetName val="Distribution births"/>
+      <sheetName val="Birth outcomes &amp; risks"/>
+      <sheetName val="IYCF packages"/>
+      <sheetName val="IYCF cost &amp; coverage"/>
+      <sheetName val="Programs to include"/>
+      <sheetName val="Program dependencies"/>
+      <sheetName val="Programs annual scale-up"/>
+      <sheetName val="Programs annual spending"/>
+      <sheetName val="Reference programs"/>
+      <sheetName val="Programs cost and coverage"/>
+      <sheetName val="Expenditure &amp; budget"/>
+      <sheetName val="Appropriate breastfeeding"/>
+      <sheetName val="IYCF package odds ratios"/>
+      <sheetName val="Relative risks"/>
+      <sheetName val="Odds ratios"/>
+      <sheetName val="Programs birth outcomes"/>
+      <sheetName val="Programs anaemia"/>
+      <sheetName val="Programs wasting"/>
+      <sheetName val="Programs for children"/>
+      <sheetName val="Programs family planning"/>
+      <sheetName val="Programs for PW"/>
+      <sheetName val="Programs birth age"/>
+      <sheetName val="Programs target population"/>
+      <sheetName val="Programs impacted population"/>
+      <sheetName val="Program risk areas"/>
+      <sheetName val="Population risk areas"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="C5">
+            <v>3677298.8269880489</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>0.35199999999999998</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>0.36</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>8634000</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>13550000</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>12394000</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>9148000</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>7531583.5695012193</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>11617337.925466225</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>11797902.113393042</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>9101877.564651465</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>1102416.4304987811</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>1932662.074533775</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>596097.88660695858</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>46122.435348534098</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>0.29978973218277538</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>0.52556568434139284</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>0.16210210664201097</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>1.2542476833820825E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16">
+        <row r="6">
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8488,430 +8802,612 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25EF31E-72FB-3644-BBE6-3720ECD4E8DB}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.5" style="153" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="153" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="153"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="155" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="155" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="155" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="156">
+        <v>329810.39545454545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="155" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="154"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="134">
-        <v>330679</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="134">
-        <v>53389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="135" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="134">
-        <v>62774</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="97">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="22">
-        <v>0.55500000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="22">
-        <f>0.274+0.021</f>
-        <v>0.29500000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="22">
-        <f>(0.221 * 8210 + 0.245*928) / (8210+928)</f>
-        <v>0.22343729481286934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="24">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="24">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B15" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="49">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="4"/>
-      <c r="C16" s="130"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="91" t="s">
-        <v>270</v>
-      </c>
-      <c r="C19" s="13">
-        <v>3.2754455445544552</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="131" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="131" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="91" t="s">
-        <v>267</v>
-      </c>
-      <c r="C22" s="13">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="C23" s="13">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="91" t="s">
-        <v>269</v>
-      </c>
-      <c r="C24" s="13">
+      <c r="C1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="23"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="23"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="23"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="23">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="23"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="18"/>
-      <c r="C32" s="96"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="27">
-        <v>95311.836370595804</v>
-      </c>
-      <c r="D34" s="93"/>
-      <c r="E34" s="94"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="27">
-        <v>153213.38703826271</v>
-      </c>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="27">
-        <v>107979.52876312518</v>
-      </c>
-      <c r="D36" s="93"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="27">
-        <v>67514.415633014214</v>
-      </c>
-      <c r="D37" s="93"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="92"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="93"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="92"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="93"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="132">
-        <f>C34-C46</f>
-        <v>87336.698738257022</v>
-      </c>
-      <c r="D40" s="93"/>
-      <c r="E40" s="94"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="132">
-        <f>C35-C47</f>
-        <v>124817.06365038975</v>
-      </c>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="132">
-        <f t="shared" ref="C42:C43" si="0">C36-C48</f>
-        <v>87014.583623567916</v>
-      </c>
-      <c r="D42" s="93"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="132">
-        <f t="shared" si="0"/>
-        <v>62076.821792783223</v>
-      </c>
-      <c r="D43" s="93"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="92"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="93"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="92"/>
-      <c r="C45" s="26"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B46" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="133">
-        <f>C52*C$6</f>
-        <v>7975.1376323387876</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="133">
-        <f t="shared" ref="C47:C49" si="1">C53*C$6</f>
-        <v>28396.323387872955</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="133">
-        <f t="shared" si="1"/>
-        <v>20964.945139557265</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="133">
-        <f t="shared" si="1"/>
-        <v>5437.5938402309912</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="22">
-        <v>0.12704523580365737</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="22">
-        <v>0.4523580365736285</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="22">
-        <v>0.33397497593840231</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="22">
-        <v>8.662175168431184E-2</v>
-      </c>
+      <c r="C2" s="150">
+        <f>1-D2-E2-F2</f>
+        <v>0.71324999999999994</v>
+      </c>
+      <c r="D2" s="151">
+        <v>0.16692000000000001</v>
+      </c>
+      <c r="E2" s="151">
+        <v>0.10057000000000001</v>
+      </c>
+      <c r="F2" s="151">
+        <v>1.9259999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="11">
+        <v>1.53</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1.32</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="37">
+        <v>1</v>
+      </c>
+      <c r="D7" s="37">
+        <v>2.52</v>
+      </c>
+      <c r="E7" s="37">
+        <v>1.96</v>
+      </c>
+      <c r="F7" s="37">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="37">
+        <v>1</v>
+      </c>
+      <c r="D8" s="37">
+        <v>2.52</v>
+      </c>
+      <c r="E8" s="37">
+        <v>1.96</v>
+      </c>
+      <c r="F8" s="37">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E13" s="5">
+        <v>8.02</v>
+      </c>
+      <c r="F13" s="5">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E14" s="5">
+        <v>8.02</v>
+      </c>
+      <c r="F14" s="5">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E15" s="5">
+        <v>8.02</v>
+      </c>
+      <c r="F15" s="5">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>999.99</v>
+      </c>
+      <c r="F16" s="5">
+        <v>999.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="69">
+        <v>1</v>
+      </c>
+      <c r="D23" s="69">
+        <v>1.52</v>
+      </c>
+      <c r="E23" s="69">
+        <v>1.75</v>
+      </c>
+      <c r="F23" s="69">
+        <v>3.14</v>
+      </c>
+      <c r="G23" s="70"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="69">
+        <v>1</v>
+      </c>
+      <c r="D24" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="E24" s="69">
+        <v>1.4</v>
+      </c>
+      <c r="F24" s="69">
+        <v>1.6</v>
+      </c>
+      <c r="G24" s="70"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="69">
+        <v>1</v>
+      </c>
+      <c r="D25" s="69">
+        <v>1.2</v>
+      </c>
+      <c r="E25" s="69">
+        <v>1.4</v>
+      </c>
+      <c r="F25" s="69">
+        <v>1.6</v>
+      </c>
+      <c r="G25" s="70"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="69">
+        <v>1</v>
+      </c>
+      <c r="D26" s="69">
+        <v>1.52</v>
+      </c>
+      <c r="E26" s="69">
+        <v>1.75</v>
+      </c>
+      <c r="F26" s="69">
+        <v>1.73</v>
+      </c>
+      <c r="G26" s="70"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="69">
+        <v>1</v>
+      </c>
+      <c r="D27" s="69">
+        <v>1</v>
+      </c>
+      <c r="E27" s="69">
+        <v>1</v>
+      </c>
+      <c r="F27" s="69">
+        <v>1</v>
+      </c>
+      <c r="G27" s="70"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="69">
+        <v>1</v>
+      </c>
+      <c r="D28" s="69">
+        <v>1</v>
+      </c>
+      <c r="E28" s="69">
+        <v>1</v>
+      </c>
+      <c r="F28" s="69">
+        <v>1</v>
+      </c>
+      <c r="G28" s="70"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="69">
+        <v>1</v>
+      </c>
+      <c r="D29" s="69">
+        <v>1.52</v>
+      </c>
+      <c r="E29" s="69">
+        <v>1.75</v>
+      </c>
+      <c r="F29" s="69">
+        <v>1.52</v>
+      </c>
+      <c r="G29" s="70"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="69">
+        <v>1</v>
+      </c>
+      <c r="D30" s="69">
+        <v>1</v>
+      </c>
+      <c r="E30" s="69">
+        <v>1.33</v>
+      </c>
+      <c r="F30" s="69">
+        <v>1</v>
+      </c>
+      <c r="G30" s="70"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="69">
+        <v>1</v>
+      </c>
+      <c r="D31" s="69">
+        <v>1</v>
+      </c>
+      <c r="E31" s="69">
+        <v>1.33</v>
+      </c>
+      <c r="F31" s="69">
+        <v>1</v>
+      </c>
+      <c r="G31" s="70"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="65"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="70"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="10"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="70"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="69">
+        <v>1</v>
+      </c>
+      <c r="D35" s="72">
+        <v>1</v>
+      </c>
+      <c r="E35" s="72">
+        <v>1</v>
+      </c>
+      <c r="F35" s="72">
+        <v>1</v>
+      </c>
+      <c r="G35" s="70"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="69">
+        <v>1</v>
+      </c>
+      <c r="D36" s="72">
+        <v>1.41</v>
+      </c>
+      <c r="E36" s="72">
+        <v>1.49</v>
+      </c>
+      <c r="F36" s="72">
+        <v>3.03</v>
+      </c>
+      <c r="G36" s="70"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="69">
+        <v>1</v>
+      </c>
+      <c r="D37" s="72">
+        <v>1.18</v>
+      </c>
+      <c r="E37" s="72">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F37" s="72">
+        <v>1.77</v>
+      </c>
+      <c r="G37" s="70"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="69">
+        <v>1</v>
+      </c>
+      <c r="D38" s="72">
+        <v>1</v>
+      </c>
+      <c r="E38" s="72">
+        <v>1</v>
+      </c>
+      <c r="F38" s="72">
+        <v>1</v>
+      </c>
+      <c r="G38" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8925,7 +9421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -12986,7 +13482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -13416,7 +13912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -14522,6 +15018,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -14532,11 +15033,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -14548,7 +15044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -14768,7 +15264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -14965,7 +15461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -15048,7 +15544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -15361,7 +15857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -16693,7 +17189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -16789,7 +17285,445 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="134">
+        <v>330679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="134">
+        <v>53389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="135" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="134">
+        <v>62774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="97">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="22">
+        <f>0.274+0.021</f>
+        <v>0.29500000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="22">
+        <f>(0.221 * 8210 + 0.245*928) / (8210+928)</f>
+        <v>0.22343729481286934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="49">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="130"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="18"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="91" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="13">
+        <v>3.2754455445544552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="131" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="131" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="91" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" s="13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="23"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="23"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="23">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="18"/>
+      <c r="C32" s="96"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="27">
+        <v>95311.836370595804</v>
+      </c>
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="27">
+        <v>153213.38703826271</v>
+      </c>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="27">
+        <v>107979.52876312518</v>
+      </c>
+      <c r="D36" s="93"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="27">
+        <v>67514.415633014214</v>
+      </c>
+      <c r="D37" s="93"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="92"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="93"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="92"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="93"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="132">
+        <f>C34-C46</f>
+        <v>87336.698738257022</v>
+      </c>
+      <c r="D40" s="93"/>
+      <c r="E40" s="94"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="132">
+        <f>C35-C47</f>
+        <v>124817.06365038975</v>
+      </c>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="132">
+        <f t="shared" ref="C42:C43" si="0">C36-C48</f>
+        <v>87014.583623567916</v>
+      </c>
+      <c r="D42" s="93"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="132">
+        <f t="shared" si="0"/>
+        <v>62076.821792783223</v>
+      </c>
+      <c r="D43" s="93"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="92"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="93"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="92"/>
+      <c r="C45" s="26"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="133">
+        <f>C52*C$6</f>
+        <v>7975.1376323387876</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="133">
+        <f t="shared" ref="C47:C49" si="1">C53*C$6</f>
+        <v>28396.323387872955</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="133">
+        <f t="shared" si="1"/>
+        <v>20964.945139557265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="133">
+        <f t="shared" si="1"/>
+        <v>5437.5938402309912</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="22">
+        <v>0.12704523580365737</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="22">
+        <v>0.4523580365736285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="22">
+        <v>0.33397497593840231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="22">
+        <v>8.662175168431184E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -18016,608 +18950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B2" s="82">
-        <v>54420.276000000005</v>
-      </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="14">
-        <v>95311.836370595804</v>
-      </c>
-      <c r="E2" s="14">
-        <v>153213.38703826271</v>
-      </c>
-      <c r="F2" s="14">
-        <v>107979.52876312518</v>
-      </c>
-      <c r="G2" s="14">
-        <v>67514.415633014214</v>
-      </c>
-      <c r="H2" s="137">
-        <f>D2+E2+F2+G2</f>
-        <v>424019.16780499794</v>
-      </c>
-      <c r="I2" s="138">
-        <f t="shared" ref="I2:I15" si="0">(B2 + 25.36*B2/(1000-25.36))/(1-0.13)</f>
-        <v>64179.636972944216</v>
-      </c>
-      <c r="J2" s="139">
-        <f t="shared" ref="J2:J15" si="1">D2/H2</f>
-        <v>0.22478190517658092</v>
-      </c>
-      <c r="K2" s="137">
-        <f>H2-I2</f>
-        <v>359839.53083205374</v>
-      </c>
-      <c r="L2" s="136"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="82">
-        <v>55451.94</v>
-      </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="14">
-        <v>99432.343105942753</v>
-      </c>
-      <c r="E3" s="14">
-        <v>157616.80744127883</v>
-      </c>
-      <c r="F3" s="14">
-        <v>111815.8725604623</v>
-      </c>
-      <c r="G3" s="14">
-        <v>70859.172782870679</v>
-      </c>
-      <c r="H3" s="137">
-        <f t="shared" ref="H3:H15" si="2">D3+E3+F3+G3</f>
-        <v>439724.19589055458</v>
-      </c>
-      <c r="I3" s="138">
-        <f t="shared" si="0"/>
-        <v>65396.312555369695</v>
-      </c>
-      <c r="J3" s="139">
-        <f t="shared" si="1"/>
-        <v>0.22612433892696462</v>
-      </c>
-      <c r="K3" s="137">
-        <f t="shared" ref="K3:K15" si="3">H3-I3</f>
-        <v>374327.88333518489</v>
-      </c>
-      <c r="L3" s="136"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B4" s="82">
-        <v>56741.520000000004</v>
-      </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="14">
-        <v>103730.98695838419</v>
-      </c>
-      <c r="E4" s="14">
-        <v>162146.78409124259</v>
-      </c>
-      <c r="F4" s="14">
-        <v>115788.5156536007</v>
-      </c>
-      <c r="G4" s="14">
-        <v>74369.633809249266</v>
-      </c>
-      <c r="H4" s="137">
-        <f t="shared" si="2"/>
-        <v>456035.9205124767</v>
-      </c>
-      <c r="I4" s="138">
-        <f t="shared" si="0"/>
-        <v>66917.157033401556</v>
-      </c>
-      <c r="J4" s="139">
-        <f t="shared" si="1"/>
-        <v>0.22746231665658059</v>
-      </c>
-      <c r="K4" s="137">
-        <f t="shared" si="3"/>
-        <v>389118.76347907516</v>
-      </c>
-      <c r="L4" s="136"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B5" s="82">
-        <v>57773.184000000001</v>
-      </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="14">
-        <v>108215.46912452648</v>
-      </c>
-      <c r="E5" s="14">
-        <v>166806.95427057892</v>
-      </c>
-      <c r="F5" s="14">
-        <v>119902.30054337379</v>
-      </c>
-      <c r="G5" s="14">
-        <v>78054.007910445769</v>
-      </c>
-      <c r="H5" s="137">
-        <f t="shared" si="2"/>
-        <v>472978.731848925</v>
-      </c>
-      <c r="I5" s="138">
-        <f t="shared" si="0"/>
-        <v>68133.832615827036</v>
-      </c>
-      <c r="J5" s="139">
-        <f t="shared" si="1"/>
-        <v>0.22879563463985053</v>
-      </c>
-      <c r="K5" s="137">
-        <f t="shared" si="3"/>
-        <v>404844.89923309797</v>
-      </c>
-      <c r="L5" s="136"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="82">
-        <v>58804.848000000005</v>
-      </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="14">
-        <v>111587.46079897028</v>
-      </c>
-      <c r="E6" s="14">
-        <v>172847.43473857158</v>
-      </c>
-      <c r="F6" s="14">
-        <v>123778.43579840714</v>
-      </c>
-      <c r="G6" s="14">
-        <v>81509.503251526839</v>
-      </c>
-      <c r="H6" s="137">
-        <f t="shared" si="2"/>
-        <v>489722.83458747581</v>
-      </c>
-      <c r="I6" s="138">
-        <f t="shared" si="0"/>
-        <v>69350.508198252515</v>
-      </c>
-      <c r="J6" s="139">
-        <f t="shared" si="1"/>
-        <v>0.22785839850201672</v>
-      </c>
-      <c r="K6" s="137">
-        <f t="shared" si="3"/>
-        <v>420372.32638922328</v>
-      </c>
-      <c r="L6" s="136"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="82">
-        <v>60094.428</v>
-      </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="14">
-        <v>115064.52366096707</v>
-      </c>
-      <c r="E7" s="14">
-        <v>179106.6555129487</v>
-      </c>
-      <c r="F7" s="14">
-        <v>127779.8766101081</v>
-      </c>
-      <c r="G7" s="14">
-        <v>85117.97533745275</v>
-      </c>
-      <c r="H7" s="137">
-        <f t="shared" si="2"/>
-        <v>507069.03112147655</v>
-      </c>
-      <c r="I7" s="138">
-        <f t="shared" si="0"/>
-        <v>70871.352676284368</v>
-      </c>
-      <c r="J7" s="139">
-        <f t="shared" si="1"/>
-        <v>0.22692082655192072</v>
-      </c>
-      <c r="K7" s="137">
-        <f t="shared" si="3"/>
-        <v>436197.67844519217</v>
-      </c>
-      <c r="L7" s="136"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="82">
-        <v>61384.008000000002</v>
-      </c>
-      <c r="C8" s="136"/>
-      <c r="D8" s="14">
-        <v>118649.93172644562</v>
-      </c>
-      <c r="E8" s="14">
-        <v>185592.53770559706</v>
-      </c>
-      <c r="F8" s="14">
-        <v>131910.67378720717</v>
-      </c>
-      <c r="G8" s="14">
-        <v>88886.196535757932</v>
-      </c>
-      <c r="H8" s="137">
-        <f t="shared" si="2"/>
-        <v>525039.33975500776</v>
-      </c>
-      <c r="I8" s="138">
-        <f t="shared" si="0"/>
-        <v>72392.197154316222</v>
-      </c>
-      <c r="J8" s="139">
-        <f t="shared" si="1"/>
-        <v>0.22598293640588851</v>
-      </c>
-      <c r="K8" s="137">
-        <f t="shared" si="3"/>
-        <v>452647.14260069153</v>
-      </c>
-      <c r="L8" s="136"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>2024</v>
-      </c>
-      <c r="B9" s="82">
-        <v>62415.672000000006</v>
-      </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="14">
-        <v>122347.06102960013</v>
-      </c>
-      <c r="E9" s="14">
-        <v>192313.28927089067</v>
-      </c>
-      <c r="F9" s="14">
-        <v>136175.00909073904</v>
-      </c>
-      <c r="G9" s="14">
-        <v>92821.239030540877</v>
-      </c>
-      <c r="H9" s="137">
-        <f t="shared" si="2"/>
-        <v>543656.59842177073</v>
-      </c>
-      <c r="I9" s="138">
-        <f t="shared" si="0"/>
-        <v>73608.872736741701</v>
-      </c>
-      <c r="J9" s="139">
-        <f t="shared" si="1"/>
-        <v>0.22504474586489401</v>
-      </c>
-      <c r="K9" s="137">
-        <f t="shared" si="3"/>
-        <v>470047.72568502906</v>
-      </c>
-      <c r="L9" s="136"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>2025</v>
-      </c>
-      <c r="B10" s="82">
-        <v>63963.168000000005</v>
-      </c>
-      <c r="C10" s="136"/>
-      <c r="D10" s="14">
-        <v>126159.39280177718</v>
-      </c>
-      <c r="E10" s="14">
-        <v>199277.41539294607</v>
-      </c>
-      <c r="F10" s="14">
-        <v>140577.19946739625</v>
-      </c>
-      <c r="G10" s="14">
-        <v>96930.48809551404</v>
-      </c>
-      <c r="H10" s="137">
-        <f t="shared" si="2"/>
-        <v>562944.49575763359</v>
-      </c>
-      <c r="I10" s="138">
-        <f t="shared" si="0"/>
-        <v>75433.886110379943</v>
-      </c>
-      <c r="J10" s="139">
-        <f t="shared" si="1"/>
-        <v>0.22410627291414714</v>
-      </c>
-      <c r="K10" s="137">
-        <f t="shared" si="3"/>
-        <v>487510.60964725364</v>
-      </c>
-      <c r="L10" s="136"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2026</v>
-      </c>
-      <c r="B11" s="82">
-        <v>65252.748000000007</v>
-      </c>
-      <c r="C11" s="136"/>
-      <c r="D11" s="14">
-        <v>129958.43520181128</v>
-      </c>
-      <c r="E11" s="14">
-        <v>206693.30010667761</v>
-      </c>
-      <c r="F11" s="14">
-        <v>144764.61955208881</v>
-      </c>
-      <c r="G11" s="14">
-        <v>100514.26540005615</v>
-      </c>
-      <c r="H11" s="137">
-        <f t="shared" si="2"/>
-        <v>581930.62026063388</v>
-      </c>
-      <c r="I11" s="138">
-        <f t="shared" si="0"/>
-        <v>76954.730588411796</v>
-      </c>
-      <c r="J11" s="139">
-        <f t="shared" si="1"/>
-        <v>0.22332290255426973</v>
-      </c>
-      <c r="K11" s="137">
-        <f t="shared" si="3"/>
-        <v>504975.88967222208</v>
-      </c>
-      <c r="L11" s="136"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>2027</v>
-      </c>
-      <c r="B12" s="82">
-        <v>66542.328000000009</v>
-      </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="14">
-        <v>133871.87830429591</v>
-      </c>
-      <c r="E12" s="14">
-        <v>214385.15862295427</v>
-      </c>
-      <c r="F12" s="14">
-        <v>149076.77172016416</v>
-      </c>
-      <c r="G12" s="14">
-        <v>104230.54445942171</v>
-      </c>
-      <c r="H12" s="137">
-        <f t="shared" si="2"/>
-        <v>601564.35310683609</v>
-      </c>
-      <c r="I12" s="138">
-        <f t="shared" si="0"/>
-        <v>78475.575066443635</v>
-      </c>
-      <c r="J12" s="139">
-        <f t="shared" si="1"/>
-        <v>0.2225395797023243</v>
-      </c>
-      <c r="K12" s="137">
-        <f t="shared" si="3"/>
-        <v>523088.77804039244</v>
-      </c>
-      <c r="L12" s="136"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>2028</v>
-      </c>
-      <c r="B13" s="82">
-        <v>67831.90800000001</v>
-      </c>
-      <c r="C13" s="136"/>
-      <c r="D13" s="14">
-        <v>137903.16706175939</v>
-      </c>
-      <c r="E13" s="14">
-        <v>222363.26099621074</v>
-      </c>
-      <c r="F13" s="14">
-        <v>153517.37140793164</v>
-      </c>
-      <c r="G13" s="14">
-        <v>108084.22421501792</v>
-      </c>
-      <c r="H13" s="137">
-        <f t="shared" si="2"/>
-        <v>621868.02368091978</v>
-      </c>
-      <c r="I13" s="138">
-        <f t="shared" si="0"/>
-        <v>79996.419544475488</v>
-      </c>
-      <c r="J13" s="139">
-        <f t="shared" si="1"/>
-        <v>0.22175632418835778</v>
-      </c>
-      <c r="K13" s="137">
-        <f t="shared" si="3"/>
-        <v>541871.60413644428</v>
-      </c>
-      <c r="L13" s="136"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>2029</v>
-      </c>
-      <c r="B14" s="82">
-        <v>69379.40400000001</v>
-      </c>
-      <c r="C14" s="136"/>
-      <c r="D14" s="14">
-        <v>142055.85016471127</v>
-      </c>
-      <c r="E14" s="14">
-        <v>230638.2594693978</v>
-      </c>
-      <c r="F14" s="14">
-        <v>158090.24472464525</v>
-      </c>
-      <c r="G14" s="14">
-        <v>112080.38473511282</v>
-      </c>
-      <c r="H14" s="137">
-        <f t="shared" si="2"/>
-        <v>642864.73909386713</v>
-      </c>
-      <c r="I14" s="138">
-        <f t="shared" si="0"/>
-        <v>81821.432918113715</v>
-      </c>
-      <c r="J14" s="139">
-        <f t="shared" si="1"/>
-        <v>0.22097315582270433</v>
-      </c>
-      <c r="K14" s="137">
-        <f t="shared" si="3"/>
-        <v>561043.30617575347</v>
-      </c>
-      <c r="L14" s="136"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>2030</v>
-      </c>
-      <c r="B15" s="82">
-        <v>70668.983999999997</v>
-      </c>
-      <c r="C15" s="136"/>
-      <c r="D15" s="14">
-        <v>146333.58316550791</v>
-      </c>
-      <c r="E15" s="14">
-        <v>239221.2026966979</v>
-      </c>
-      <c r="F15" s="14">
-        <v>162799.33174915577</v>
-      </c>
-      <c r="G15" s="14">
-        <v>116224.29391157588</v>
-      </c>
-      <c r="H15" s="137">
-        <f t="shared" si="2"/>
-        <v>664578.41152293747</v>
-      </c>
-      <c r="I15" s="138">
-        <f t="shared" si="0"/>
-        <v>83342.277396145553</v>
-      </c>
-      <c r="J15" s="139">
-        <f t="shared" si="1"/>
-        <v>0.22019009439408688</v>
-      </c>
-      <c r="K15" s="137">
-        <f t="shared" si="3"/>
-        <v>581236.13412679196</v>
-      </c>
-      <c r="L15" s="136"/>
-    </row>
-    <row r="18" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H18" s="93"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -18784,7 +19117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -18966,7 +19299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -19052,7 +19385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
@@ -21451,7 +21784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A032313-24E0-9C48-9D8A-905CBB85933B}">
   <dimension ref="A1:O56"/>
   <sheetViews>
@@ -23873,7 +24206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1990B3BE-FBB2-4049-A8E8-C14ABBED6FFD}">
   <dimension ref="A1:C40"/>
   <sheetViews>
@@ -24126,7 +24459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73F586E-25D9-9349-8378-5B2565FC386A}">
   <dimension ref="A1:K51"/>
   <sheetViews>
@@ -24667,7 +25000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D42515-0FA6-A540-AB9A-12D04604300A}">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -24967,7 +25300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
@@ -25714,12 +26047,613 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="82">
+        <v>54420.276000000005</v>
+      </c>
+      <c r="C2" s="136"/>
+      <c r="D2" s="14">
+        <v>95311.836370595804</v>
+      </c>
+      <c r="E2" s="14">
+        <v>153213.38703826271</v>
+      </c>
+      <c r="F2" s="14">
+        <v>107979.52876312518</v>
+      </c>
+      <c r="G2" s="14">
+        <v>67514.415633014214</v>
+      </c>
+      <c r="H2" s="137">
+        <f>D2+E2+F2+G2</f>
+        <v>424019.16780499794</v>
+      </c>
+      <c r="I2" s="138">
+        <f t="shared" ref="I2:I15" si="0">(B2 + 25.36*B2/(1000-25.36))/(1-0.13)</f>
+        <v>64179.636972944216</v>
+      </c>
+      <c r="J2" s="139">
+        <f t="shared" ref="J2:J15" si="1">D2/H2</f>
+        <v>0.22478190517658092</v>
+      </c>
+      <c r="K2" s="137">
+        <f>H2-I2</f>
+        <v>359839.53083205374</v>
+      </c>
+      <c r="L2" s="136"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="82">
+        <v>55451.94</v>
+      </c>
+      <c r="C3" s="136"/>
+      <c r="D3" s="14">
+        <v>99432.343105942753</v>
+      </c>
+      <c r="E3" s="14">
+        <v>157616.80744127883</v>
+      </c>
+      <c r="F3" s="14">
+        <v>111815.8725604623</v>
+      </c>
+      <c r="G3" s="14">
+        <v>70859.172782870679</v>
+      </c>
+      <c r="H3" s="137">
+        <f t="shared" ref="H3:H15" si="2">D3+E3+F3+G3</f>
+        <v>439724.19589055458</v>
+      </c>
+      <c r="I3" s="138">
+        <f t="shared" si="0"/>
+        <v>65396.312555369695</v>
+      </c>
+      <c r="J3" s="139">
+        <f t="shared" si="1"/>
+        <v>0.22612433892696462</v>
+      </c>
+      <c r="K3" s="137">
+        <f t="shared" ref="K3:K15" si="3">H3-I3</f>
+        <v>374327.88333518489</v>
+      </c>
+      <c r="L3" s="136"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="82">
+        <v>56741.520000000004</v>
+      </c>
+      <c r="C4" s="136"/>
+      <c r="D4" s="14">
+        <v>103730.98695838419</v>
+      </c>
+      <c r="E4" s="14">
+        <v>162146.78409124259</v>
+      </c>
+      <c r="F4" s="14">
+        <v>115788.5156536007</v>
+      </c>
+      <c r="G4" s="14">
+        <v>74369.633809249266</v>
+      </c>
+      <c r="H4" s="137">
+        <f t="shared" si="2"/>
+        <v>456035.9205124767</v>
+      </c>
+      <c r="I4" s="138">
+        <f t="shared" si="0"/>
+        <v>66917.157033401556</v>
+      </c>
+      <c r="J4" s="139">
+        <f t="shared" si="1"/>
+        <v>0.22746231665658059</v>
+      </c>
+      <c r="K4" s="137">
+        <f t="shared" si="3"/>
+        <v>389118.76347907516</v>
+      </c>
+      <c r="L4" s="136"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="82">
+        <v>57773.184000000001</v>
+      </c>
+      <c r="C5" s="136"/>
+      <c r="D5" s="14">
+        <v>108215.46912452648</v>
+      </c>
+      <c r="E5" s="14">
+        <v>166806.95427057892</v>
+      </c>
+      <c r="F5" s="14">
+        <v>119902.30054337379</v>
+      </c>
+      <c r="G5" s="14">
+        <v>78054.007910445769</v>
+      </c>
+      <c r="H5" s="137">
+        <f t="shared" si="2"/>
+        <v>472978.731848925</v>
+      </c>
+      <c r="I5" s="138">
+        <f t="shared" si="0"/>
+        <v>68133.832615827036</v>
+      </c>
+      <c r="J5" s="139">
+        <f t="shared" si="1"/>
+        <v>0.22879563463985053</v>
+      </c>
+      <c r="K5" s="137">
+        <f t="shared" si="3"/>
+        <v>404844.89923309797</v>
+      </c>
+      <c r="L5" s="136"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="82">
+        <v>58804.848000000005</v>
+      </c>
+      <c r="C6" s="136"/>
+      <c r="D6" s="14">
+        <v>111587.46079897028</v>
+      </c>
+      <c r="E6" s="14">
+        <v>172847.43473857158</v>
+      </c>
+      <c r="F6" s="14">
+        <v>123778.43579840714</v>
+      </c>
+      <c r="G6" s="14">
+        <v>81509.503251526839</v>
+      </c>
+      <c r="H6" s="137">
+        <f t="shared" si="2"/>
+        <v>489722.83458747581</v>
+      </c>
+      <c r="I6" s="138">
+        <f t="shared" si="0"/>
+        <v>69350.508198252515</v>
+      </c>
+      <c r="J6" s="139">
+        <f t="shared" si="1"/>
+        <v>0.22785839850201672</v>
+      </c>
+      <c r="K6" s="137">
+        <f t="shared" si="3"/>
+        <v>420372.32638922328</v>
+      </c>
+      <c r="L6" s="136"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="82">
+        <v>60094.428</v>
+      </c>
+      <c r="C7" s="136"/>
+      <c r="D7" s="14">
+        <v>115064.52366096707</v>
+      </c>
+      <c r="E7" s="14">
+        <v>179106.6555129487</v>
+      </c>
+      <c r="F7" s="14">
+        <v>127779.8766101081</v>
+      </c>
+      <c r="G7" s="14">
+        <v>85117.97533745275</v>
+      </c>
+      <c r="H7" s="137">
+        <f t="shared" si="2"/>
+        <v>507069.03112147655</v>
+      </c>
+      <c r="I7" s="138">
+        <f t="shared" si="0"/>
+        <v>70871.352676284368</v>
+      </c>
+      <c r="J7" s="139">
+        <f t="shared" si="1"/>
+        <v>0.22692082655192072</v>
+      </c>
+      <c r="K7" s="137">
+        <f t="shared" si="3"/>
+        <v>436197.67844519217</v>
+      </c>
+      <c r="L7" s="136"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="82">
+        <v>61384.008000000002</v>
+      </c>
+      <c r="C8" s="136"/>
+      <c r="D8" s="14">
+        <v>118649.93172644562</v>
+      </c>
+      <c r="E8" s="14">
+        <v>185592.53770559706</v>
+      </c>
+      <c r="F8" s="14">
+        <v>131910.67378720717</v>
+      </c>
+      <c r="G8" s="14">
+        <v>88886.196535757932</v>
+      </c>
+      <c r="H8" s="137">
+        <f t="shared" si="2"/>
+        <v>525039.33975500776</v>
+      </c>
+      <c r="I8" s="138">
+        <f t="shared" si="0"/>
+        <v>72392.197154316222</v>
+      </c>
+      <c r="J8" s="139">
+        <f t="shared" si="1"/>
+        <v>0.22598293640588851</v>
+      </c>
+      <c r="K8" s="137">
+        <f t="shared" si="3"/>
+        <v>452647.14260069153</v>
+      </c>
+      <c r="L8" s="136"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="82">
+        <v>62415.672000000006</v>
+      </c>
+      <c r="C9" s="136"/>
+      <c r="D9" s="14">
+        <v>122347.06102960013</v>
+      </c>
+      <c r="E9" s="14">
+        <v>192313.28927089067</v>
+      </c>
+      <c r="F9" s="14">
+        <v>136175.00909073904</v>
+      </c>
+      <c r="G9" s="14">
+        <v>92821.239030540877</v>
+      </c>
+      <c r="H9" s="137">
+        <f t="shared" si="2"/>
+        <v>543656.59842177073</v>
+      </c>
+      <c r="I9" s="138">
+        <f t="shared" si="0"/>
+        <v>73608.872736741701</v>
+      </c>
+      <c r="J9" s="139">
+        <f t="shared" si="1"/>
+        <v>0.22504474586489401</v>
+      </c>
+      <c r="K9" s="137">
+        <f t="shared" si="3"/>
+        <v>470047.72568502906</v>
+      </c>
+      <c r="L9" s="136"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="82">
+        <v>63963.168000000005</v>
+      </c>
+      <c r="C10" s="136"/>
+      <c r="D10" s="14">
+        <v>126159.39280177718</v>
+      </c>
+      <c r="E10" s="14">
+        <v>199277.41539294607</v>
+      </c>
+      <c r="F10" s="14">
+        <v>140577.19946739625</v>
+      </c>
+      <c r="G10" s="14">
+        <v>96930.48809551404</v>
+      </c>
+      <c r="H10" s="137">
+        <f t="shared" si="2"/>
+        <v>562944.49575763359</v>
+      </c>
+      <c r="I10" s="138">
+        <f t="shared" si="0"/>
+        <v>75433.886110379943</v>
+      </c>
+      <c r="J10" s="139">
+        <f t="shared" si="1"/>
+        <v>0.22410627291414714</v>
+      </c>
+      <c r="K10" s="137">
+        <f t="shared" si="3"/>
+        <v>487510.60964725364</v>
+      </c>
+      <c r="L10" s="136"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B11" s="82">
+        <v>65252.748000000007</v>
+      </c>
+      <c r="C11" s="136"/>
+      <c r="D11" s="14">
+        <v>129958.43520181128</v>
+      </c>
+      <c r="E11" s="14">
+        <v>206693.30010667761</v>
+      </c>
+      <c r="F11" s="14">
+        <v>144764.61955208881</v>
+      </c>
+      <c r="G11" s="14">
+        <v>100514.26540005615</v>
+      </c>
+      <c r="H11" s="137">
+        <f t="shared" si="2"/>
+        <v>581930.62026063388</v>
+      </c>
+      <c r="I11" s="138">
+        <f t="shared" si="0"/>
+        <v>76954.730588411796</v>
+      </c>
+      <c r="J11" s="139">
+        <f t="shared" si="1"/>
+        <v>0.22332290255426973</v>
+      </c>
+      <c r="K11" s="137">
+        <f t="shared" si="3"/>
+        <v>504975.88967222208</v>
+      </c>
+      <c r="L11" s="136"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>2027</v>
+      </c>
+      <c r="B12" s="82">
+        <v>66542.328000000009</v>
+      </c>
+      <c r="C12" s="136"/>
+      <c r="D12" s="14">
+        <v>133871.87830429591</v>
+      </c>
+      <c r="E12" s="14">
+        <v>214385.15862295427</v>
+      </c>
+      <c r="F12" s="14">
+        <v>149076.77172016416</v>
+      </c>
+      <c r="G12" s="14">
+        <v>104230.54445942171</v>
+      </c>
+      <c r="H12" s="137">
+        <f t="shared" si="2"/>
+        <v>601564.35310683609</v>
+      </c>
+      <c r="I12" s="138">
+        <f t="shared" si="0"/>
+        <v>78475.575066443635</v>
+      </c>
+      <c r="J12" s="139">
+        <f t="shared" si="1"/>
+        <v>0.2225395797023243</v>
+      </c>
+      <c r="K12" s="137">
+        <f t="shared" si="3"/>
+        <v>523088.77804039244</v>
+      </c>
+      <c r="L12" s="136"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>2028</v>
+      </c>
+      <c r="B13" s="82">
+        <v>67831.90800000001</v>
+      </c>
+      <c r="C13" s="136"/>
+      <c r="D13" s="14">
+        <v>137903.16706175939</v>
+      </c>
+      <c r="E13" s="14">
+        <v>222363.26099621074</v>
+      </c>
+      <c r="F13" s="14">
+        <v>153517.37140793164</v>
+      </c>
+      <c r="G13" s="14">
+        <v>108084.22421501792</v>
+      </c>
+      <c r="H13" s="137">
+        <f t="shared" si="2"/>
+        <v>621868.02368091978</v>
+      </c>
+      <c r="I13" s="138">
+        <f t="shared" si="0"/>
+        <v>79996.419544475488</v>
+      </c>
+      <c r="J13" s="139">
+        <f t="shared" si="1"/>
+        <v>0.22175632418835778</v>
+      </c>
+      <c r="K13" s="137">
+        <f t="shared" si="3"/>
+        <v>541871.60413644428</v>
+      </c>
+      <c r="L13" s="136"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>2029</v>
+      </c>
+      <c r="B14" s="82">
+        <v>69379.40400000001</v>
+      </c>
+      <c r="C14" s="136"/>
+      <c r="D14" s="14">
+        <v>142055.85016471127</v>
+      </c>
+      <c r="E14" s="14">
+        <v>230638.2594693978</v>
+      </c>
+      <c r="F14" s="14">
+        <v>158090.24472464525</v>
+      </c>
+      <c r="G14" s="14">
+        <v>112080.38473511282</v>
+      </c>
+      <c r="H14" s="137">
+        <f t="shared" si="2"/>
+        <v>642864.73909386713</v>
+      </c>
+      <c r="I14" s="138">
+        <f t="shared" si="0"/>
+        <v>81821.432918113715</v>
+      </c>
+      <c r="J14" s="139">
+        <f t="shared" si="1"/>
+        <v>0.22097315582270433</v>
+      </c>
+      <c r="K14" s="137">
+        <f t="shared" si="3"/>
+        <v>561043.30617575347</v>
+      </c>
+      <c r="L14" s="136"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>2030</v>
+      </c>
+      <c r="B15" s="82">
+        <v>70668.983999999997</v>
+      </c>
+      <c r="C15" s="136"/>
+      <c r="D15" s="14">
+        <v>146333.58316550791</v>
+      </c>
+      <c r="E15" s="14">
+        <v>239221.2026966979</v>
+      </c>
+      <c r="F15" s="14">
+        <v>162799.33174915577</v>
+      </c>
+      <c r="G15" s="14">
+        <v>116224.29391157588</v>
+      </c>
+      <c r="H15" s="137">
+        <f t="shared" si="2"/>
+        <v>664578.41152293747</v>
+      </c>
+      <c r="I15" s="138">
+        <f t="shared" si="0"/>
+        <v>83342.277396145553</v>
+      </c>
+      <c r="J15" s="139">
+        <f t="shared" si="1"/>
+        <v>0.22019009439408688</v>
+      </c>
+      <c r="K15" s="137">
+        <f t="shared" si="3"/>
+        <v>581236.13412679196</v>
+      </c>
+      <c r="L15" s="136"/>
+    </row>
+    <row r="18" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="93"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEE49AB-5966-5B46-9CF2-A4BF105110A1}">
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26794,341 +27728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E346C09-53E0-2941-954C-080459EB2AB9}">
-  <dimension ref="A1:K32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D1" s="10">
-        <v>2011</v>
-      </c>
-      <c r="E1" s="10">
-        <v>2012</v>
-      </c>
-      <c r="F1" s="10">
-        <v>2013</v>
-      </c>
-      <c r="G1" s="10">
-        <v>2014</v>
-      </c>
-      <c r="H1" s="10">
-        <v>2015</v>
-      </c>
-      <c r="I1" s="10">
-        <v>2016</v>
-      </c>
-      <c r="J1" s="10">
-        <v>2017</v>
-      </c>
-      <c r="K1" s="10">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99">
-        <f>SUM(Distributions!$C$4:$C$5)</f>
-        <v>0.13918604651162791</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99">
-        <f>SUM(Distributions!D$4:D$5)</f>
-        <v>0.13918604651162791</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99">
-        <f>SUM(Distributions!E$4:E$5)</f>
-        <v>0.20354651162790699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99">
-        <f>SUM(Distributions!F$4:F$5)</f>
-        <v>0.39819767441860465</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99">
-        <f>SUM(Distributions!G$4:G$5)</f>
-        <v>0.41201162790697676</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="99">
-        <f>SUM(Distributions!C10:C11)</f>
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="99">
-        <f>SUM(Distributions!D10:D11)</f>
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="99">
-        <f>SUM(Distributions!E10:E11)</f>
-        <v>7.1500000000000008E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="99">
-        <f>SUM(Distributions!F10:F11)</f>
-        <v>5.2500000000000005E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="99">
-        <f>SUM(Distributions!G10:G11)</f>
-        <v>2.9699999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="99">
-        <f>'Prevalence of anaemia'!C3</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="99">
-        <f>'Prevalence of anaemia'!D3</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="99">
-        <f>'Prevalence of anaemia'!E3</f>
-        <v>0.23939999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="99">
-        <f>'Prevalence of anaemia'!F3</f>
-        <v>0.23939999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="99">
-        <f>'Prevalence of anaemia'!G3</f>
-        <v>0.23939999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B19" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="99">
-        <f>'Prevalence of anaemia'!H3</f>
-        <v>0.18228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" s="99">
-        <f>'Prevalence of anaemia'!I3</f>
-        <v>0.18228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="99">
-        <f>'Prevalence of anaemia'!J3</f>
-        <v>0.18228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="99">
-        <f>'Prevalence of anaemia'!K3</f>
-        <v>0.18228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K23" s="99">
-        <f>'Prevalence of anaemia'!L3</f>
-        <v>0.13019999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" s="99">
-        <f>'Prevalence of anaemia'!M3</f>
-        <v>0.13019999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="99">
-        <f>'Prevalence of anaemia'!N3</f>
-        <v>0.13019999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="99">
-        <f>'Prevalence of anaemia'!O3</f>
-        <v>0.13019999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F450A84F-751C-F849-89B8-11D48EBA418B}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -27194,7 +27794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD2B04F-79CD-644E-8CAB-0B99F3DA0979}">
   <dimension ref="A1:B51"/>
   <sheetViews>
@@ -27535,6 +28135,340 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E346C09-53E0-2941-954C-080459EB2AB9}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="10">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="10">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="10">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="10">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="10">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="10">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="10">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99">
+        <f>SUM(Distributions!$C$4:$C$5)</f>
+        <v>0.13918604651162791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99">
+        <f>SUM(Distributions!D$4:D$5)</f>
+        <v>0.13918604651162791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99">
+        <f>SUM(Distributions!E$4:E$5)</f>
+        <v>0.20354651162790699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99">
+        <f>SUM(Distributions!F$4:F$5)</f>
+        <v>0.39819767441860465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99">
+        <f>SUM(Distributions!G$4:G$5)</f>
+        <v>0.41201162790697676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="99">
+        <f>SUM(Distributions!C10:C11)</f>
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="99">
+        <f>SUM(Distributions!D10:D11)</f>
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="99">
+        <f>SUM(Distributions!E10:E11)</f>
+        <v>7.1500000000000008E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="99">
+        <f>SUM(Distributions!F10:F11)</f>
+        <v>5.2500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="99">
+        <f>SUM(Distributions!G10:G11)</f>
+        <v>2.9699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="99">
+        <f>'Prevalence of anaemia'!C3</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="99">
+        <f>'Prevalence of anaemia'!D3</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="99">
+        <f>'Prevalence of anaemia'!E3</f>
+        <v>0.23939999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="99">
+        <f>'Prevalence of anaemia'!F3</f>
+        <v>0.23939999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="99">
+        <f>'Prevalence of anaemia'!G3</f>
+        <v>0.23939999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="99">
+        <f>'Prevalence of anaemia'!H3</f>
+        <v>0.18228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="99">
+        <f>'Prevalence of anaemia'!I3</f>
+        <v>0.18228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="99">
+        <f>'Prevalence of anaemia'!J3</f>
+        <v>0.18228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="99">
+        <f>'Prevalence of anaemia'!K3</f>
+        <v>0.18228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="99">
+        <f>'Prevalence of anaemia'!L3</f>
+        <v>0.13019999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="99">
+        <f>'Prevalence of anaemia'!M3</f>
+        <v>0.13019999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B25" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="99">
+        <f>'Prevalence of anaemia'!N3</f>
+        <v>0.13019999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B26" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="99">
+        <f>'Prevalence of anaemia'!O3</f>
+        <v>0.13019999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B31" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B32" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
@@ -28459,7 +29393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -28767,11 +29701,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -28919,7 +29853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -29284,7 +30218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -29432,577 +30366,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G38"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="150">
-        <f>1-D2-E2-F2</f>
-        <v>0.71324999999999994</v>
-      </c>
-      <c r="D2" s="151">
-        <v>0.16692000000000001</v>
-      </c>
-      <c r="E2" s="151">
-        <v>0.10057000000000001</v>
-      </c>
-      <c r="F2" s="151">
-        <v>1.9259999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="11">
-        <v>1.53</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1.32</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6">
-        <v>6.4</v>
-      </c>
-      <c r="F6" s="6">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="37">
-        <v>1</v>
-      </c>
-      <c r="D7" s="37">
-        <v>2.52</v>
-      </c>
-      <c r="E7" s="37">
-        <v>1.96</v>
-      </c>
-      <c r="F7" s="37">
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="37">
-        <v>1</v>
-      </c>
-      <c r="D8" s="37">
-        <v>2.52</v>
-      </c>
-      <c r="E8" s="37">
-        <v>1.96</v>
-      </c>
-      <c r="F8" s="37">
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="E13" s="5">
-        <v>8.02</v>
-      </c>
-      <c r="F13" s="5">
-        <v>11.54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="E14" s="5">
-        <v>8.02</v>
-      </c>
-      <c r="F14" s="5">
-        <v>11.54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="E15" s="5">
-        <v>8.02</v>
-      </c>
-      <c r="F15" s="5">
-        <v>11.54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>999.99</v>
-      </c>
-      <c r="F16" s="5">
-        <v>999.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="69">
-        <v>1</v>
-      </c>
-      <c r="D23" s="69">
-        <v>1.52</v>
-      </c>
-      <c r="E23" s="69">
-        <v>1.75</v>
-      </c>
-      <c r="F23" s="69">
-        <v>3.14</v>
-      </c>
-      <c r="G23" s="70"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="69">
-        <v>1</v>
-      </c>
-      <c r="D24" s="69">
-        <v>1.2</v>
-      </c>
-      <c r="E24" s="69">
-        <v>1.4</v>
-      </c>
-      <c r="F24" s="69">
-        <v>1.6</v>
-      </c>
-      <c r="G24" s="70"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="69">
-        <v>1</v>
-      </c>
-      <c r="D25" s="69">
-        <v>1.2</v>
-      </c>
-      <c r="E25" s="69">
-        <v>1.4</v>
-      </c>
-      <c r="F25" s="69">
-        <v>1.6</v>
-      </c>
-      <c r="G25" s="70"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="69">
-        <v>1</v>
-      </c>
-      <c r="D26" s="69">
-        <v>1.52</v>
-      </c>
-      <c r="E26" s="69">
-        <v>1.75</v>
-      </c>
-      <c r="F26" s="69">
-        <v>1.73</v>
-      </c>
-      <c r="G26" s="70"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="69">
-        <v>1</v>
-      </c>
-      <c r="D27" s="69">
-        <v>1</v>
-      </c>
-      <c r="E27" s="69">
-        <v>1</v>
-      </c>
-      <c r="F27" s="69">
-        <v>1</v>
-      </c>
-      <c r="G27" s="70"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28" s="69">
-        <v>1</v>
-      </c>
-      <c r="D28" s="69">
-        <v>1</v>
-      </c>
-      <c r="E28" s="69">
-        <v>1</v>
-      </c>
-      <c r="F28" s="69">
-        <v>1</v>
-      </c>
-      <c r="G28" s="70"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="69">
-        <v>1</v>
-      </c>
-      <c r="D29" s="69">
-        <v>1.52</v>
-      </c>
-      <c r="E29" s="69">
-        <v>1.75</v>
-      </c>
-      <c r="F29" s="69">
-        <v>1.52</v>
-      </c>
-      <c r="G29" s="70"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="C30" s="69">
-        <v>1</v>
-      </c>
-      <c r="D30" s="69">
-        <v>1</v>
-      </c>
-      <c r="E30" s="69">
-        <v>1.33</v>
-      </c>
-      <c r="F30" s="69">
-        <v>1</v>
-      </c>
-      <c r="G30" s="70"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="C31" s="69">
-        <v>1</v>
-      </c>
-      <c r="D31" s="69">
-        <v>1</v>
-      </c>
-      <c r="E31" s="69">
-        <v>1.33</v>
-      </c>
-      <c r="F31" s="69">
-        <v>1</v>
-      </c>
-      <c r="G31" s="70"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="65"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="70"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="10"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="70"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="69">
-        <v>1</v>
-      </c>
-      <c r="D35" s="72">
-        <v>1</v>
-      </c>
-      <c r="E35" s="72">
-        <v>1</v>
-      </c>
-      <c r="F35" s="72">
-        <v>1</v>
-      </c>
-      <c r="G35" s="70"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" s="69">
-        <v>1</v>
-      </c>
-      <c r="D36" s="72">
-        <v>1.41</v>
-      </c>
-      <c r="E36" s="72">
-        <v>1.49</v>
-      </c>
-      <c r="F36" s="72">
-        <v>3.03</v>
-      </c>
-      <c r="G36" s="70"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="C37" s="69">
-        <v>1</v>
-      </c>
-      <c r="D37" s="72">
-        <v>1.18</v>
-      </c>
-      <c r="E37" s="72">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F37" s="72">
-        <v>1.77</v>
-      </c>
-      <c r="G37" s="70"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" s="69">
-        <v>1</v>
-      </c>
-      <c r="D38" s="72">
-        <v>1</v>
-      </c>
-      <c r="E38" s="72">
-        <v>1</v>
-      </c>
-      <c r="F38" s="72">
-        <v>1</v>
-      </c>
-      <c r="G38" s="70"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/input_spreadsheets/Tanzania/regions/InputForCode_Arusha_v2.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Arusha_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92964936-7048-E649-B211-9ED596F55BB5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B0C10D-EAC3-0643-89E0-875757463022}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="50" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <definedName name="PWPop">'[1]Baseline year demographics'!$C$44:$C$47</definedName>
     <definedName name="WRAPop">'[1]Baseline year demographics'!$C$32:$C$35</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -6434,13 +6434,13 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="34" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="739" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="740">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -8808,38 +8808,38 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="153" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="153" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="153"/>
+    <col min="1" max="1" width="17.5" style="152" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="152" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="152"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="154" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="154" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="154" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="156">
+      <c r="B2" s="155">
         <v>329810.39545454545</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="154" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="154"/>
+      <c r="B3" s="153"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13957,7 +13957,7 @@
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="156" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
@@ -13980,7 +13980,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="152"/>
+      <c r="B3" s="156"/>
       <c r="C3" t="s">
         <v>150</v>
       </c>
@@ -14002,7 +14002,7 @@
       <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="152"/>
+      <c r="B4" s="156"/>
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -14024,7 +14024,7 @@
       <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="156" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -14047,7 +14047,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="152"/>
+      <c r="B6" s="156"/>
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -14068,7 +14068,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="152"/>
+      <c r="B7" s="156"/>
       <c r="C7" t="s">
         <v>160</v>
       </c>
@@ -14089,7 +14089,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="156" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -14112,7 +14112,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="152"/>
+      <c r="B9" s="156"/>
       <c r="C9" t="s">
         <v>150</v>
       </c>
@@ -14133,7 +14133,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="152"/>
+      <c r="B10" s="156"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
@@ -14154,7 +14154,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -14177,7 +14177,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="152"/>
+      <c r="B12" s="156"/>
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -14198,7 +14198,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="152"/>
+      <c r="B13" s="156"/>
       <c r="C13" t="s">
         <v>160</v>
       </c>
@@ -14219,7 +14219,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="152" t="s">
+      <c r="B14" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -14242,7 +14242,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="152"/>
+      <c r="B15" s="156"/>
       <c r="C15" t="s">
         <v>150</v>
       </c>
@@ -14263,7 +14263,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="152"/>
+      <c r="B16" s="156"/>
       <c r="C16" t="s">
         <v>160</v>
       </c>
@@ -14317,7 +14317,7 @@
       <c r="A19" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="152" t="s">
+      <c r="B19" s="156" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -14340,7 +14340,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="152"/>
+      <c r="B20" s="156"/>
       <c r="C20" t="s">
         <v>150</v>
       </c>
@@ -14361,7 +14361,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="152"/>
+      <c r="B21" s="156"/>
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -14382,7 +14382,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="152" t="s">
+      <c r="B22" s="156" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -14405,7 +14405,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="152"/>
+      <c r="B23" s="156"/>
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -14426,7 +14426,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="152"/>
+      <c r="B24" s="156"/>
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -14447,7 +14447,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="152" t="s">
+      <c r="B25" s="156" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -14470,7 +14470,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="152"/>
+      <c r="B26" s="156"/>
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -14491,7 +14491,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="152"/>
+      <c r="B27" s="156"/>
       <c r="C27" t="s">
         <v>160</v>
       </c>
@@ -14512,7 +14512,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="152" t="s">
+      <c r="B28" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14535,7 +14535,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="152"/>
+      <c r="B29" s="156"/>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -14556,7 +14556,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="152"/>
+      <c r="B30" s="156"/>
       <c r="C30" t="s">
         <v>160</v>
       </c>
@@ -14577,7 +14577,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="152" t="s">
+      <c r="B31" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14600,7 +14600,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="152"/>
+      <c r="B32" s="156"/>
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -14621,7 +14621,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="152"/>
+      <c r="B33" s="156"/>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -14668,7 +14668,7 @@
       <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="152" t="s">
+      <c r="B36" s="156" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
@@ -14691,7 +14691,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="152"/>
+      <c r="B37" s="156"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -14712,7 +14712,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="152"/>
+      <c r="B38" s="156"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -14734,7 +14734,7 @@
       <c r="I38" s="38"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="152" t="s">
+      <c r="B39" s="156" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14757,7 +14757,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="152"/>
+      <c r="B40" s="156"/>
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -14778,7 +14778,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="152"/>
+      <c r="B41" s="156"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -14799,7 +14799,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="152" t="s">
+      <c r="B42" s="156" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14822,7 +14822,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="152"/>
+      <c r="B43" s="156"/>
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -14843,7 +14843,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="152"/>
+      <c r="B44" s="156"/>
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -14864,7 +14864,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="152" t="s">
+      <c r="B45" s="156" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -14887,7 +14887,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="152"/>
+      <c r="B46" s="156"/>
       <c r="C46" t="s">
         <v>150</v>
       </c>
@@ -14908,7 +14908,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="152"/>
+      <c r="B47" s="156"/>
       <c r="C47" t="s">
         <v>160</v>
       </c>
@@ -14929,7 +14929,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="152" t="s">
+      <c r="B48" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -14952,7 +14952,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="152"/>
+      <c r="B49" s="156"/>
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -14973,7 +14973,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="152"/>
+      <c r="B50" s="156"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
@@ -15018,11 +15018,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15033,6 +15028,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -29397,8 +29397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29676,7 +29676,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="89">
-        <v>-4.2702871978521627E-5</v>
+        <v>0</v>
       </c>
       <c r="E17" s="85">
         <v>2.7589326302391104E-3</v>
